--- a/biology/Histoire de la zoologie et de la botanique/Massimiliano_Spinola/Massimiliano_Spinola.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Massimiliano_Spinola/Massimiliano_Spinola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marquis Massimiliano Spinola est un entomologiste italien, né le 10 juillet 1780 à Pézenas (Hérault) et mort le 12 novembre 1857 à Tassarolo.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, de grande extraction, était installée à Gênes. Le marquis Spinola est un descendant du fameux général espagnol Ambrogio Spinola (1569-1630) à qui il doit une grande partie de sa fortune constituée de terres en Espagne et en Amérique du Sud.
 Il se consacre à l’entomologie et réalise une riche collection, notamment grâce à des spécimens qu’il reçoit de ses propriétés. Spinola s’intéresse principalement aux coléoptères, aux hyménoptères et aux hémiptères.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1806. Insectorum Liguriæ Species Novæ aut Rariores, quas in agro Ligustico nuper detexit, descripsit, et iconibus illustravit. Tom. 1. xvii+159 pp. Genuæ.
 1808. Insectorum Liguriae species novae aut rariores, quae in agro Ligustico nuper detexit, descripsit et iconibus illustravit Maximilianus Spinola, adjecto Catalogo spiecierum auctoribus jam enumeratarum, quae in eadam regione occurrunt, vol. 2. Gravier, Genuae.
